--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Adam22</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.2511141900027</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H2">
-        <v>2.2511141900027</v>
+        <v>0.202633</v>
       </c>
       <c r="I2">
-        <v>0.7881557688605884</v>
+        <v>0.02266275549884949</v>
       </c>
       <c r="J2">
-        <v>0.7881557688605884</v>
+        <v>0.02266275549884949</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.90269015534024</v>
+        <v>2.357976666666667</v>
       </c>
       <c r="N2">
-        <v>1.90269015534024</v>
+        <v>7.07393</v>
       </c>
       <c r="O2">
-        <v>0.3741908454855937</v>
+        <v>0.4138076229453391</v>
       </c>
       <c r="P2">
-        <v>0.3741908454855937</v>
+        <v>0.4138076229453391</v>
       </c>
       <c r="Q2">
-        <v>4.283172807864856</v>
+        <v>0.1592679619655555</v>
       </c>
       <c r="R2">
-        <v>4.283172807864856</v>
+        <v>1.43341165769</v>
       </c>
       <c r="S2">
-        <v>0.2949206735242917</v>
+        <v>0.00937802098237032</v>
       </c>
       <c r="T2">
-        <v>0.2949206735242917</v>
+        <v>0.00937802098237032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.2511141900027</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H3">
-        <v>2.2511141900027</v>
+        <v>0.202633</v>
       </c>
       <c r="I3">
-        <v>0.7881557688605884</v>
+        <v>0.02266275549884949</v>
       </c>
       <c r="J3">
-        <v>0.7881557688605884</v>
+        <v>0.02266275549884949</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.63918276471039</v>
+        <v>1.653161666666667</v>
       </c>
       <c r="N3">
-        <v>1.63918276471039</v>
+        <v>4.959485</v>
       </c>
       <c r="O3">
-        <v>0.3223684018708297</v>
+        <v>0.2901177561670903</v>
       </c>
       <c r="P3">
-        <v>0.3223684018708297</v>
+        <v>0.2901177561670903</v>
       </c>
       <c r="Q3">
-        <v>3.689987581647416</v>
+        <v>0.1116617026672222</v>
       </c>
       <c r="R3">
-        <v>3.689987581647416</v>
+        <v>1.004955324005</v>
       </c>
       <c r="S3">
-        <v>0.2540765156328629</v>
+        <v>0.006574867773889601</v>
       </c>
       <c r="T3">
-        <v>0.2540765156328629</v>
+        <v>0.006574867773889602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.2511141900027</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H4">
-        <v>2.2511141900027</v>
+        <v>0.202633</v>
       </c>
       <c r="I4">
-        <v>0.7881557688605884</v>
+        <v>0.02266275549884949</v>
       </c>
       <c r="J4">
-        <v>0.7881557688605884</v>
+        <v>0.02266275549884949</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.332038377019989</v>
+        <v>0.33798</v>
       </c>
       <c r="N4">
-        <v>0.332038377019989</v>
+        <v>1.01394</v>
       </c>
       <c r="O4">
-        <v>0.065300028321509</v>
+        <v>0.05931301288098655</v>
       </c>
       <c r="P4">
-        <v>0.065300028321509</v>
+        <v>0.05931301288098655</v>
       </c>
       <c r="Q4">
-        <v>0.7474563021351637</v>
+        <v>0.02282863378</v>
       </c>
       <c r="R4">
-        <v>0.7474563021351637</v>
+        <v>0.20545770402</v>
       </c>
       <c r="S4">
-        <v>0.05146659402835712</v>
+        <v>0.001344196308821908</v>
       </c>
       <c r="T4">
-        <v>0.05146659402835712</v>
+        <v>0.001344196308821909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.2511141900027</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H5">
-        <v>2.2511141900027</v>
+        <v>0.202633</v>
       </c>
       <c r="I5">
-        <v>0.7881557688605884</v>
+        <v>0.02266275549884949</v>
       </c>
       <c r="J5">
-        <v>0.7881557688605884</v>
+        <v>0.02266275549884949</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.445409051011315</v>
+        <v>0.5223656666666666</v>
       </c>
       <c r="N5">
-        <v>0.445409051011315</v>
+        <v>1.567097</v>
       </c>
       <c r="O5">
-        <v>0.08759596979943182</v>
+        <v>0.09167134598374201</v>
       </c>
       <c r="P5">
-        <v>0.08759596979943182</v>
+        <v>0.09167134598374201</v>
       </c>
       <c r="Q5">
-        <v>1.002666635087208</v>
+        <v>0.03528284071122222</v>
       </c>
       <c r="R5">
-        <v>1.002666635087208</v>
+        <v>0.317545566401</v>
       </c>
       <c r="S5">
-        <v>0.06903926892636006</v>
+        <v>0.002077525300279983</v>
       </c>
       <c r="T5">
-        <v>0.06903926892636006</v>
+        <v>0.002077525300279983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.2511141900027</v>
+        <v>0.06754433333333333</v>
       </c>
       <c r="H6">
-        <v>2.2511141900027</v>
+        <v>0.202633</v>
       </c>
       <c r="I6">
-        <v>0.7881557688605884</v>
+        <v>0.02266275549884949</v>
       </c>
       <c r="J6">
-        <v>0.7881557688605884</v>
+        <v>0.02266275549884949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.765491796028879</v>
+        <v>0.8267596666666667</v>
       </c>
       <c r="N6">
-        <v>0.765491796028879</v>
+        <v>2.480279</v>
       </c>
       <c r="O6">
-        <v>0.1505447545226356</v>
+        <v>0.145090262022842</v>
       </c>
       <c r="P6">
-        <v>0.1505447545226356</v>
+        <v>0.145090262022842</v>
       </c>
       <c r="Q6">
-        <v>1.723209444371262</v>
+        <v>0.05584293051188888</v>
       </c>
       <c r="R6">
-        <v>1.723209444371262</v>
+        <v>0.502586374607</v>
       </c>
       <c r="S6">
-        <v>0.1186527167487164</v>
+        <v>0.003288145133487675</v>
       </c>
       <c r="T6">
-        <v>0.1186527167487164</v>
+        <v>0.003288145133487676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.605065107215493</v>
+        <v>2.302381666666667</v>
       </c>
       <c r="H7">
-        <v>0.605065107215493</v>
+        <v>6.907145</v>
       </c>
       <c r="I7">
-        <v>0.2118442311394116</v>
+        <v>0.7725046677002302</v>
       </c>
       <c r="J7">
-        <v>0.2118442311394116</v>
+        <v>0.7725046677002302</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.90269015534024</v>
+        <v>2.357976666666667</v>
       </c>
       <c r="N7">
-        <v>1.90269015534024</v>
+        <v>7.07393</v>
       </c>
       <c r="O7">
-        <v>0.3741908454855937</v>
+        <v>0.4138076229453391</v>
       </c>
       <c r="P7">
-        <v>0.3741908454855937</v>
+        <v>0.4138076229453391</v>
       </c>
       <c r="Q7">
-        <v>1.151251422838805</v>
+        <v>5.428962247761111</v>
       </c>
       <c r="R7">
-        <v>1.151251422838805</v>
+        <v>48.86066022985</v>
       </c>
       <c r="S7">
-        <v>0.07927017196130196</v>
+        <v>0.3196683202552114</v>
       </c>
       <c r="T7">
-        <v>0.07927017196130196</v>
+        <v>0.3196683202552114</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.605065107215493</v>
+        <v>2.302381666666667</v>
       </c>
       <c r="H8">
-        <v>0.605065107215493</v>
+        <v>6.907145</v>
       </c>
       <c r="I8">
-        <v>0.2118442311394116</v>
+        <v>0.7725046677002302</v>
       </c>
       <c r="J8">
-        <v>0.2118442311394116</v>
+        <v>0.7725046677002302</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.63918276471039</v>
+        <v>1.653161666666667</v>
       </c>
       <c r="N8">
-        <v>1.63918276471039</v>
+        <v>4.959485</v>
       </c>
       <c r="O8">
-        <v>0.3223684018708297</v>
+        <v>0.2901177561670903</v>
       </c>
       <c r="P8">
-        <v>0.3223684018708297</v>
+        <v>0.2901177561670903</v>
       </c>
       <c r="Q8">
-        <v>0.9918122952752804</v>
+        <v>3.806209113369444</v>
       </c>
       <c r="R8">
-        <v>0.9918122952752804</v>
+        <v>34.255882020325</v>
       </c>
       <c r="S8">
-        <v>0.06829188623796677</v>
+        <v>0.2241173208217945</v>
       </c>
       <c r="T8">
-        <v>0.06829188623796677</v>
+        <v>0.2241173208217945</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.605065107215493</v>
+        <v>2.302381666666667</v>
       </c>
       <c r="H9">
-        <v>0.605065107215493</v>
+        <v>6.907145</v>
       </c>
       <c r="I9">
-        <v>0.2118442311394116</v>
+        <v>0.7725046677002302</v>
       </c>
       <c r="J9">
-        <v>0.2118442311394116</v>
+        <v>0.7725046677002302</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.332038377019989</v>
+        <v>0.33798</v>
       </c>
       <c r="N9">
-        <v>0.332038377019989</v>
+        <v>1.01394</v>
       </c>
       <c r="O9">
-        <v>0.065300028321509</v>
+        <v>0.05931301288098655</v>
       </c>
       <c r="P9">
-        <v>0.065300028321509</v>
+        <v>0.05931301288098655</v>
       </c>
       <c r="Q9">
-        <v>0.2009048361912579</v>
+        <v>0.7781589557</v>
       </c>
       <c r="R9">
-        <v>0.2009048361912579</v>
+        <v>7.003430601300001</v>
       </c>
       <c r="S9">
-        <v>0.01383343429315187</v>
+        <v>0.04581957930592599</v>
       </c>
       <c r="T9">
-        <v>0.01383343429315187</v>
+        <v>0.04581957930592599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.605065107215493</v>
+        <v>2.302381666666667</v>
       </c>
       <c r="H10">
-        <v>0.605065107215493</v>
+        <v>6.907145</v>
       </c>
       <c r="I10">
-        <v>0.2118442311394116</v>
+        <v>0.7725046677002302</v>
       </c>
       <c r="J10">
-        <v>0.2118442311394116</v>
+        <v>0.7725046677002302</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.445409051011315</v>
+        <v>0.5223656666666666</v>
       </c>
       <c r="N10">
-        <v>0.445409051011315</v>
+        <v>1.567097</v>
       </c>
       <c r="O10">
-        <v>0.08759596979943182</v>
+        <v>0.09167134598374201</v>
       </c>
       <c r="P10">
-        <v>0.08759596979943182</v>
+        <v>0.09167134598374201</v>
       </c>
       <c r="Q10">
-        <v>0.2695014752049123</v>
+        <v>1.202685134229444</v>
       </c>
       <c r="R10">
-        <v>0.2695014752049123</v>
+        <v>10.824166208065</v>
       </c>
       <c r="S10">
-        <v>0.01855670087307175</v>
+        <v>0.07081654266680346</v>
       </c>
       <c r="T10">
-        <v>0.01855670087307175</v>
+        <v>0.07081654266680346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.302381666666667</v>
+      </c>
+      <c r="H11">
+        <v>6.907145</v>
+      </c>
+      <c r="I11">
+        <v>0.7725046677002302</v>
+      </c>
+      <c r="J11">
+        <v>0.7725046677002302</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8267596666666667</v>
+      </c>
+      <c r="N11">
+        <v>2.480279</v>
+      </c>
+      <c r="O11">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="P11">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="Q11">
+        <v>1.903516299272778</v>
+      </c>
+      <c r="R11">
+        <v>17.131646693455</v>
+      </c>
+      <c r="S11">
+        <v>0.1120829046504949</v>
+      </c>
+      <c r="T11">
+        <v>0.1120829046504949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6104853333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.831456</v>
+      </c>
+      <c r="I12">
+        <v>0.2048325768009203</v>
+      </c>
+      <c r="J12">
+        <v>0.2048325768009203</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.357976666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.07393</v>
+      </c>
+      <c r="O12">
+        <v>0.4138076229453391</v>
+      </c>
+      <c r="P12">
+        <v>0.4138076229453391</v>
+      </c>
+      <c r="Q12">
+        <v>1.439510171342222</v>
+      </c>
+      <c r="R12">
+        <v>12.95559154208</v>
+      </c>
+      <c r="S12">
+        <v>0.08476128170775744</v>
+      </c>
+      <c r="T12">
+        <v>0.08476128170775746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.605065107215493</v>
-      </c>
-      <c r="H11">
-        <v>0.605065107215493</v>
-      </c>
-      <c r="I11">
-        <v>0.2118442311394116</v>
-      </c>
-      <c r="J11">
-        <v>0.2118442311394116</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.765491796028879</v>
-      </c>
-      <c r="N11">
-        <v>0.765491796028879</v>
-      </c>
-      <c r="O11">
-        <v>0.1505447545226356</v>
-      </c>
-      <c r="P11">
-        <v>0.1505447545226356</v>
-      </c>
-      <c r="Q11">
-        <v>0.4631723756367939</v>
-      </c>
-      <c r="R11">
-        <v>0.4631723756367939</v>
-      </c>
-      <c r="S11">
-        <v>0.0318920377739192</v>
-      </c>
-      <c r="T11">
-        <v>0.0318920377739192</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6104853333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.831456</v>
+      </c>
+      <c r="I13">
+        <v>0.2048325768009203</v>
+      </c>
+      <c r="J13">
+        <v>0.2048325768009203</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.653161666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.959485</v>
+      </c>
+      <c r="O13">
+        <v>0.2901177561670903</v>
+      </c>
+      <c r="P13">
+        <v>0.2901177561670903</v>
+      </c>
+      <c r="Q13">
+        <v>1.009230951128889</v>
+      </c>
+      <c r="R13">
+        <v>9.083078560160001</v>
+      </c>
+      <c r="S13">
+        <v>0.0594255675714062</v>
+      </c>
+      <c r="T13">
+        <v>0.05942556757140621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6104853333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.831456</v>
+      </c>
+      <c r="I14">
+        <v>0.2048325768009203</v>
+      </c>
+      <c r="J14">
+        <v>0.2048325768009203</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.33798</v>
+      </c>
+      <c r="N14">
+        <v>1.01394</v>
+      </c>
+      <c r="O14">
+        <v>0.05931301288098655</v>
+      </c>
+      <c r="P14">
+        <v>0.05931301288098655</v>
+      </c>
+      <c r="Q14">
+        <v>0.20633183296</v>
+      </c>
+      <c r="R14">
+        <v>1.85698649664</v>
+      </c>
+      <c r="S14">
+        <v>0.01214923726623865</v>
+      </c>
+      <c r="T14">
+        <v>0.01214923726623865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6104853333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.831456</v>
+      </c>
+      <c r="I15">
+        <v>0.2048325768009203</v>
+      </c>
+      <c r="J15">
+        <v>0.2048325768009203</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5223656666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.567097</v>
+      </c>
+      <c r="O15">
+        <v>0.09167134598374201</v>
+      </c>
+      <c r="P15">
+        <v>0.09167134598374201</v>
+      </c>
+      <c r="Q15">
+        <v>0.3188965781368889</v>
+      </c>
+      <c r="R15">
+        <v>2.870069203232</v>
+      </c>
+      <c r="S15">
+        <v>0.01877727801665857</v>
+      </c>
+      <c r="T15">
+        <v>0.01877727801665857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6104853333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.831456</v>
+      </c>
+      <c r="I16">
+        <v>0.2048325768009203</v>
+      </c>
+      <c r="J16">
+        <v>0.2048325768009203</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8267596666666667</v>
+      </c>
+      <c r="N16">
+        <v>2.480279</v>
+      </c>
+      <c r="O16">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="P16">
+        <v>0.145090262022842</v>
+      </c>
+      <c r="Q16">
+        <v>0.5047246506915556</v>
+      </c>
+      <c r="R16">
+        <v>4.542521856224</v>
+      </c>
+      <c r="S16">
+        <v>0.02971921223885943</v>
+      </c>
+      <c r="T16">
+        <v>0.02971921223885944</v>
       </c>
     </row>
   </sheetData>
